--- a/biology/Botanique/Parc_naturel_de_la_forêt_de_Zielonka/Parc_naturel_de_la_forêt_de_Zielonka.xlsx
+++ b/biology/Botanique/Parc_naturel_de_la_forêt_de_Zielonka/Parc_naturel_de_la_forêt_de_Zielonka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_la_for%C3%AAt_de_Zielonka</t>
+          <t>Parc_naturel_de_la_forêt_de_Zielonka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel de la forêt de Zielonka (en polonais : Park Krajobrazowy Puszcza Zielonka) , est un parc naturel de Pologne qui a été créé en 1993.
 Couvrant 11 439 hectares, il est à cheval sur les gminas de Czerwonak, Kiszkowo, Murowana Goślina, Pobiedziska et Skoki. Le point culminant du parc est la colline de Dziewicza, au sud-ouest du parc, avec une hauteur de 143 mètres. Au sommet de cette colline se dresse une tour d'observation, utilisée pour repérer d'éventuels incendies forestier, mais également ouverte au public pour observer le parc.
